--- a/идеальная последовательность (1)  копия.xlsx
+++ b/идеальная последовательность (1)  копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5F6C1-E6CB-4BA4-8D14-292CF22805EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C750D399-486C-4DA8-925B-7DF3998D2A65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>ФИО</t>
   </si>
@@ -84,9 +84,6 @@
     <t>ДатаСозданияОрганизации</t>
   </si>
   <si>
-    <t>НомерУставаПрофОрг</t>
-  </si>
-  <si>
     <t>ОГРН</t>
   </si>
   <si>
@@ -385,6 +382,18 @@
   </si>
   <si>
     <t>Васильева Василия Васильевича</t>
+  </si>
+  <si>
+    <t>Фамилия И.О. зав кафедрыРП</t>
+  </si>
+  <si>
+    <t>Блинова А.В</t>
+  </si>
+  <si>
+    <t>ДатаСозданияУстава</t>
+  </si>
+  <si>
+    <t>01.03.2001</t>
   </si>
 </sst>
 </file>
@@ -825,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL24"/>
+  <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,10 +898,12 @@
     <col min="60" max="60" width="23.85546875" style="4" customWidth="1"/>
     <col min="61" max="61" width="26.42578125" style="4" customWidth="1"/>
     <col min="62" max="63" width="26.7109375" style="4" customWidth="1"/>
-    <col min="64" max="16384" width="8.85546875" style="4"/>
+    <col min="64" max="64" width="8.85546875" style="4"/>
+    <col min="65" max="65" width="26.85546875" style="4" customWidth="1"/>
+    <col min="66" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -921,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -936,19 +947,19 @@
         <v>7</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>9</v>
@@ -957,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>12</v>
@@ -975,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>15</v>
@@ -984,138 +995,141 @@
         <v>16</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="H2" s="4">
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="K2" s="4">
         <v>2025</v>
@@ -1124,163 +1138,166 @@
         <v>79325563981</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>123</v>
-      </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="AP2" s="4">
         <v>123</v>
       </c>
       <c r="AQ2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="AV2" s="4">
         <v>123</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD2" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="BE2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BF2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BG2" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="BH2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BI2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="BK2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1290,7 +1307,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1300,7 +1317,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -1319,7 +1336,7 @@
       <c r="AN5" s="13"/>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1335,7 +1352,7 @@
       <c r="AN6" s="13"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1351,7 +1368,7 @@
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -1367,7 +1384,7 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1383,7 +1400,7 @@
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1399,7 +1416,7 @@
       <c r="AN10" s="13"/>
       <c r="AO10" s="13"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1409,7 +1426,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1419,7 +1436,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1429,7 +1446,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1439,7 +1456,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -1449,7 +1466,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
